--- a/Part_2_tables/match_on_title_corrected_grouped.xlsx
+++ b/Part_2_tables/match_on_title_corrected_grouped.xlsx
@@ -455,11 +455,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>323</v>
+        <v>170</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.68</t>
         </is>
       </c>
     </row>
@@ -468,11 +468,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9781</v>
+        <v>9934</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>96.80</t>
+          <t>98.32</t>
         </is>
       </c>
     </row>

--- a/Part_2_tables/match_on_title_corrected_grouped.xlsx
+++ b/Part_2_tables/match_on_title_corrected_grouped.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.70</t>
         </is>
       </c>
     </row>
@@ -472,7 +472,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>98.32</t>
+          <t>99.40</t>
         </is>
       </c>
     </row>

--- a/Part_2_tables/match_on_title_corrected_grouped.xlsx
+++ b/Part_2_tables/match_on_title_corrected_grouped.xlsx
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9934</v>
+        <v>9928</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
